--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/CALIFORNIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/CALIFORNIA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2344"/>
+  <dimension ref="A1:D2338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C43">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C46">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C48">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C58">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C65">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C94">
@@ -1616,7 +1616,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C95">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C98">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C103">
@@ -1857,7 +1857,7 @@
         <v>23</v>
       </c>
       <c r="D113">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="114">
@@ -1876,7 +1876,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C115">
@@ -1889,7 +1889,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C116">
@@ -2505,7 +2505,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C163">
@@ -2648,7 +2648,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C174">
@@ -2687,7 +2687,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C177">
@@ -2999,7 +2999,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C201">
@@ -3012,7 +3012,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C202">
@@ -3025,7 +3025,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C203">
@@ -3129,7 +3129,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C211">
@@ -3349,7 +3349,7 @@
         <v>23</v>
       </c>
       <c r="D227">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="228">
@@ -3459,7 +3459,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C236">
@@ -3672,7 +3672,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C252">
@@ -3698,7 +3698,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3755,7 +3755,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C258">
@@ -3955,7 +3955,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C273">
@@ -4137,7 +4137,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C287">
@@ -4189,7 +4189,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C291">
@@ -4280,7 +4280,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C298">
@@ -4293,7 +4293,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C299">
@@ -4306,7 +4306,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C300">
@@ -4319,7 +4319,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C301">
@@ -4449,12 +4449,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C311">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C314">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C316">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C323">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C331">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C337">
@@ -4883,7 +4883,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C344">
@@ -4987,7 +4987,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C352">
@@ -5000,7 +5000,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C353">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C370">
@@ -5403,7 +5403,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C384">
@@ -5416,7 +5416,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C385">
@@ -5429,7 +5429,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C386">
@@ -5455,7 +5455,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C388">
@@ -5481,7 +5481,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5553,7 +5553,7 @@
         <v>23</v>
       </c>
       <c r="D395">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="396">
@@ -5611,7 +5611,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C400">
@@ -5624,7 +5624,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C401">
@@ -5793,7 +5793,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C414">
@@ -5871,7 +5871,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C420">
@@ -5884,7 +5884,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C421">
@@ -5897,7 +5897,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C422">
@@ -5910,7 +5910,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C423">
@@ -6084,7 +6084,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C436">
@@ -6097,7 +6097,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C437">
@@ -6110,7 +6110,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C438">
@@ -6214,7 +6214,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C446">
@@ -6266,7 +6266,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C450">
@@ -6370,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C458">
@@ -6422,7 +6422,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C462">
@@ -6448,7 +6448,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C464">
@@ -6474,7 +6474,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C466">
@@ -6500,7 +6500,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C468">
@@ -6526,7 +6526,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C470">
@@ -6591,7 +6591,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C475">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C481">
@@ -6713,7 +6713,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C484">
@@ -6726,7 +6726,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C485">
@@ -6778,7 +6778,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C489">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C490">
@@ -6817,7 +6817,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C492">
@@ -6830,7 +6830,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C493">
@@ -6869,7 +6869,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C496">
@@ -6882,7 +6882,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C497">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C498">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C499">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C504">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C505">
@@ -7038,7 +7038,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C509">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C510">
@@ -7129,7 +7129,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C516">
@@ -7142,7 +7142,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C517">
@@ -7168,7 +7168,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C519">
@@ -7181,7 +7181,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C520">
@@ -7207,7 +7207,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C522">
@@ -7246,7 +7246,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C525">
@@ -7415,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C538">
@@ -7441,7 +7441,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C540">
@@ -7467,7 +7467,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C542">
@@ -7493,7 +7493,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C544">
@@ -7545,7 +7545,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C548">
@@ -7558,7 +7558,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C549">
@@ -7719,7 +7719,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C561">
@@ -7810,7 +7810,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C568">
@@ -7823,7 +7823,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C569">
@@ -7901,7 +7901,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C575">
@@ -7979,7 +7979,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C581">
@@ -8031,7 +8031,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C585">
@@ -8070,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C588">
@@ -8161,7 +8161,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C595">
@@ -8174,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C596">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C597">
@@ -8200,7 +8200,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C598">
@@ -8213,7 +8213,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C599">
@@ -8239,7 +8239,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C601">
@@ -8252,20 +8252,20 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C602">
         <v>23</v>
       </c>
       <c r="D602">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C603">
@@ -8304,7 +8304,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C606">
@@ -8382,7 +8382,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C612">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C613">
@@ -8447,7 +8447,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C617">
@@ -8473,7 +8473,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C619">
@@ -8486,7 +8486,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C620">
@@ -8525,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C623">
@@ -8642,7 +8642,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C632">
@@ -8655,7 +8655,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C633">
@@ -8668,7 +8668,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C634">
@@ -8720,7 +8720,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C638">
@@ -8733,7 +8733,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C639">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C644">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C645">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C650">
@@ -8920,7 +8920,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C653">
@@ -8946,7 +8946,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C655">
@@ -9024,7 +9024,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C661">
@@ -9083,7 +9083,7 @@
         <v>225</v>
       </c>
       <c r="D665">
-        <v>0.0009449414136323547</v>
+        <v>0.0009449414136323549</v>
       </c>
     </row>
     <row r="666">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C668">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C669">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C678">
@@ -9336,7 +9336,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C685">
@@ -9349,7 +9349,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C686">
@@ -9362,7 +9362,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C687">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C691">
@@ -9492,7 +9492,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C697">
@@ -9505,7 +9505,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C698">
@@ -9609,7 +9609,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C706">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C711">
@@ -9687,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C712">
@@ -9713,7 +9713,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C714">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C715">
@@ -9765,7 +9765,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C718">
@@ -9791,7 +9791,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C720">
@@ -9804,7 +9804,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C721">
@@ -9817,7 +9817,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C722">
@@ -9830,7 +9830,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C723">
@@ -9869,7 +9869,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C726">
@@ -9882,7 +9882,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C727">
@@ -9921,7 +9921,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C730">
@@ -9973,7 +9973,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C734">
@@ -9986,7 +9986,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C735">
@@ -10025,7 +10025,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C738">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C739">
@@ -10194,7 +10194,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C751">
@@ -10207,7 +10207,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C752">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C753">
@@ -10233,7 +10233,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C754">
@@ -10298,7 +10298,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C759">
@@ -10311,7 +10311,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C760">
@@ -10350,7 +10350,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C763">
@@ -10363,7 +10363,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C764">
@@ -10376,7 +10376,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C765">
@@ -10719,7 +10719,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C791">
@@ -10745,7 +10745,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C793">
@@ -11616,7 +11616,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C860">
@@ -11959,7 +11959,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C886">
@@ -12063,7 +12063,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C894">
@@ -12115,7 +12115,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C898">
@@ -12193,7 +12193,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C904">
@@ -12219,7 +12219,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C906">
@@ -12323,7 +12323,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C914">
@@ -12380,7 +12380,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C918">
@@ -12393,7 +12393,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C919">
@@ -12445,7 +12445,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C923">
@@ -12536,7 +12536,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C930">
@@ -12957,7 +12957,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C962">
@@ -13027,7 +13027,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C967">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C975">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C979">
@@ -13209,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C981">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C982">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C983">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C986">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C989">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C992">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C993">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C994">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C996">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C997">
@@ -13430,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C998">
@@ -13456,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C1000">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C1001">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1002">
@@ -13495,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1003">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1004">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1005">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1007">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1008">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1022">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1024">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1025">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1027">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1029">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1030">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1034">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1036">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1037">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1038">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1040">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1041">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1043">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1048">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1069">
@@ -14373,7 +14373,7 @@
         <v>23</v>
       </c>
       <c r="D1070">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1071">
@@ -14392,7 +14392,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1072">
@@ -14483,7 +14483,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1079">
@@ -14691,7 +14691,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1095">
@@ -14743,7 +14743,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1099">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1106">
@@ -15172,7 +15172,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1132">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1133">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1145">
@@ -15510,7 +15510,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1158">
@@ -15523,7 +15523,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1159">
@@ -15536,7 +15536,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1160">
@@ -16056,7 +16056,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1200">
@@ -16160,7 +16160,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1208">
@@ -16394,7 +16394,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1226">
@@ -16407,7 +16407,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1227">
@@ -16433,7 +16433,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1229">
@@ -16758,7 +16758,7 @@
     <row r="1254">
       <c r="B1254" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1254">
@@ -16849,7 +16849,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1261">
@@ -17187,7 +17187,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1287">
@@ -17200,7 +17200,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1288">
@@ -17213,7 +17213,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1289">
@@ -17402,7 +17402,7 @@
         <v>236</v>
       </c>
       <c r="D1303">
-        <v>0.0009911385494099365</v>
+        <v>0.0009911385494099363</v>
       </c>
     </row>
     <row r="1304">
@@ -17460,7 +17460,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1308">
@@ -17532,7 +17532,7 @@
         <v>23</v>
       </c>
       <c r="D1313">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1314">
@@ -17707,7 +17707,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1327">
@@ -17772,7 +17772,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1332">
@@ -17863,7 +17863,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1339">
@@ -17876,14 +17876,14 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1340">
         <v>23</v>
       </c>
       <c r="D1340">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1341">
@@ -17902,7 +17902,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1342">
@@ -17961,7 +17961,7 @@
         <v>23</v>
       </c>
       <c r="D1346">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1347">
@@ -18084,7 +18084,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1356">
@@ -18188,7 +18188,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1364">
@@ -18214,7 +18214,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1366">
@@ -18624,7 +18624,7 @@
         <v>23</v>
       </c>
       <c r="D1397">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1398">
@@ -18734,7 +18734,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1406">
@@ -19254,7 +19254,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1446">
@@ -19378,7 +19378,7 @@
         <v>23</v>
       </c>
       <c r="D1455">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1456">
@@ -19592,7 +19592,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1472">
@@ -19618,7 +19618,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1474">
@@ -19631,7 +19631,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1475">
@@ -19657,7 +19657,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1477">
@@ -19670,7 +19670,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1478">
@@ -19683,7 +19683,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1479">
@@ -19696,7 +19696,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1480">
@@ -19722,7 +19722,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1482">
@@ -19735,7 +19735,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1483">
@@ -19748,7 +19748,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1484">
@@ -19774,7 +19774,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1486">
@@ -19787,7 +19787,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1487">
@@ -19839,7 +19839,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1491">
@@ -19852,7 +19852,7 @@
     <row r="1492">
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1492">
@@ -19865,7 +19865,7 @@
     <row r="1493">
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1493">
@@ -19878,7 +19878,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1494">
@@ -19891,7 +19891,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1495">
@@ -19930,7 +19930,7 @@
     <row r="1498">
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1498">
@@ -19943,7 +19943,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1499">
@@ -19956,7 +19956,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1500">
@@ -19995,7 +19995,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1503">
@@ -20008,7 +20008,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1504">
@@ -20047,7 +20047,7 @@
     <row r="1507">
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1507">
@@ -20403,7 +20403,7 @@
     <row r="1534">
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1534">
@@ -20455,7 +20455,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1538">
@@ -20585,7 +20585,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1548">
@@ -20728,7 +20728,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1559">
@@ -20780,7 +20780,7 @@
     <row r="1563">
       <c r="B1563" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1563">
@@ -20793,7 +20793,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1564">
@@ -21001,7 +21001,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1580">
@@ -21014,7 +21014,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1581">
@@ -21079,7 +21079,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1586">
@@ -21105,7 +21105,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1588">
@@ -21157,7 +21157,7 @@
     <row r="1592">
       <c r="B1592" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1592">
@@ -21177,7 +21177,7 @@
         <v>23</v>
       </c>
       <c r="D1593">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1594">
@@ -21300,7 +21300,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1603">
@@ -21313,7 +21313,7 @@
     <row r="1604">
       <c r="B1604" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1604">
@@ -21482,7 +21482,7 @@
     <row r="1617">
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1617">
@@ -21612,7 +21612,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1627">
@@ -21697,7 +21697,7 @@
         <v>23</v>
       </c>
       <c r="D1633">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1634">
@@ -21762,7 +21762,7 @@
         <v>236</v>
       </c>
       <c r="D1638">
-        <v>0.0009911385494099365</v>
+        <v>0.0009911385494099363</v>
       </c>
     </row>
     <row r="1639">
@@ -21833,7 +21833,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1644">
@@ -21853,7 +21853,7 @@
         <v>23</v>
       </c>
       <c r="D1645">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1646">
@@ -21885,7 +21885,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1648">
@@ -21898,7 +21898,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1649">
@@ -22015,7 +22015,7 @@
     <row r="1658">
       <c r="B1658" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1658">
@@ -22119,7 +22119,7 @@
     <row r="1666">
       <c r="B1666" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1666">
@@ -22132,7 +22132,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1667">
@@ -22145,7 +22145,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1668">
@@ -22191,7 +22191,7 @@
         <v>23</v>
       </c>
       <c r="D1671">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1672">
@@ -22210,7 +22210,7 @@
     <row r="1673">
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1673">
@@ -22236,7 +22236,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1675">
@@ -22249,7 +22249,7 @@
     <row r="1676">
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1676">
@@ -22262,7 +22262,7 @@
     <row r="1677">
       <c r="B1677" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1677">
@@ -22327,7 +22327,7 @@
     <row r="1682">
       <c r="B1682" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1682">
@@ -22425,7 +22425,7 @@
         <v>23</v>
       </c>
       <c r="D1689">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1690">
@@ -22483,7 +22483,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1694">
@@ -22509,7 +22509,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1696">
@@ -22561,7 +22561,7 @@
     <row r="1700">
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1700">
@@ -22639,7 +22639,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1706">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1721">
@@ -22859,13 +22859,13 @@
         <v>23</v>
       </c>
       <c r="D1722">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1723">
       <c r="B1723" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1723">
@@ -22943,20 +22943,20 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1729">
         <v>23</v>
       </c>
       <c r="D1729">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="1730">
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1730">
@@ -22995,7 +22995,7 @@
     <row r="1733">
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1733">
@@ -23034,7 +23034,7 @@
     <row r="1736">
       <c r="B1736" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1736">
@@ -23239,7 +23239,7 @@
     <row r="1751">
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1751">
@@ -23252,7 +23252,7 @@
     <row r="1752">
       <c r="B1752" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1752">
@@ -23330,7 +23330,7 @@
     <row r="1758">
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1758">
@@ -23473,7 +23473,7 @@
     <row r="1769">
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1769">
@@ -23551,7 +23551,7 @@
     <row r="1775">
       <c r="B1775" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1775">
@@ -23629,7 +23629,7 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1781">
@@ -23655,7 +23655,7 @@
     <row r="1783">
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1783">
@@ -23759,7 +23759,7 @@
     <row r="1791">
       <c r="B1791" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1791">
@@ -23811,7 +23811,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1795">
@@ -23824,7 +23824,7 @@
     <row r="1796">
       <c r="B1796" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1796">
@@ -23837,7 +23837,7 @@
     <row r="1797">
       <c r="B1797" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1797">
@@ -23850,7 +23850,7 @@
     <row r="1798">
       <c r="B1798" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1798">
@@ -23863,7 +23863,7 @@
     <row r="1799">
       <c r="B1799" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1799">
@@ -23876,7 +23876,7 @@
     <row r="1800">
       <c r="B1800" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1800">
@@ -24692,7 +24692,7 @@
     <row r="1862">
       <c r="B1862" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1862">
@@ -24848,7 +24848,7 @@
     <row r="1874">
       <c r="B1874" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1874">
@@ -24887,7 +24887,7 @@
     <row r="1877">
       <c r="B1877" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1877">
@@ -25126,7 +25126,7 @@
     <row r="1895">
       <c r="B1895" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1895">
@@ -25573,7 +25573,7 @@
     <row r="1929">
       <c r="B1929" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1929">
@@ -25682,7 +25682,7 @@
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1937">
@@ -25708,7 +25708,7 @@
     <row r="1939">
       <c r="B1939" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1939">
@@ -25721,7 +25721,7 @@
     <row r="1940">
       <c r="B1940" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1940">
@@ -25799,7 +25799,7 @@
     <row r="1946">
       <c r="B1946" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1946">
@@ -25890,7 +25890,7 @@
     <row r="1953">
       <c r="B1953" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1953">
@@ -25942,7 +25942,7 @@
     <row r="1957">
       <c r="B1957" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1957">
@@ -25955,7 +25955,7 @@
     <row r="1958">
       <c r="B1958" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1958">
@@ -25968,7 +25968,7 @@
     <row r="1959">
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1959">
@@ -26007,7 +26007,7 @@
     <row r="1962">
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1962">
@@ -26085,7 +26085,7 @@
     <row r="1968">
       <c r="B1968" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1968">
@@ -26189,7 +26189,7 @@
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1976">
@@ -26228,7 +26228,7 @@
     <row r="1979">
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1979">
@@ -26384,7 +26384,7 @@
     <row r="1991">
       <c r="B1991" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1991">
@@ -26519,7 +26519,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C2001">
@@ -26571,7 +26571,7 @@
     <row r="2005">
       <c r="B2005" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C2005">
@@ -26591,7 +26591,7 @@
         <v>23</v>
       </c>
       <c r="D2006">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="2007">
@@ -26727,7 +26727,7 @@
     <row r="2017">
       <c r="B2017" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C2017">
@@ -26753,7 +26753,7 @@
     <row r="2019">
       <c r="B2019" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C2019">
@@ -26805,7 +26805,7 @@
     <row r="2023">
       <c r="B2023" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C2023">
@@ -26831,7 +26831,7 @@
     <row r="2025">
       <c r="B2025" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C2025">
@@ -26916,7 +26916,7 @@
         <v>23</v>
       </c>
       <c r="D2031">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="2032">
@@ -27091,7 +27091,7 @@
     <row r="2045">
       <c r="B2045" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2045">
@@ -27104,7 +27104,7 @@
     <row r="2046">
       <c r="B2046" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2046">
@@ -27267,7 +27267,7 @@
         <v>23</v>
       </c>
       <c r="D2058">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="2059">
@@ -27325,7 +27325,7 @@
     <row r="2063">
       <c r="B2063" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2063">
@@ -27338,7 +27338,7 @@
     <row r="2064">
       <c r="B2064" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2064">
@@ -27351,7 +27351,7 @@
     <row r="2065">
       <c r="B2065" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2065">
@@ -27403,7 +27403,7 @@
     <row r="2069">
       <c r="B2069" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2069">
@@ -27416,7 +27416,7 @@
     <row r="2070">
       <c r="B2070" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2070">
@@ -27429,7 +27429,7 @@
     <row r="2071">
       <c r="B2071" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2071">
@@ -27442,7 +27442,7 @@
     <row r="2072">
       <c r="B2072" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2072">
@@ -27540,7 +27540,7 @@
         <v>23</v>
       </c>
       <c r="D2079">
-        <v>9.659401117130737E-05</v>
+        <v>9.659401117130736E-05</v>
       </c>
     </row>
     <row r="2080">
@@ -27598,7 +27598,7 @@
     <row r="2084">
       <c r="B2084" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2084">
@@ -27663,7 +27663,7 @@
     <row r="2089">
       <c r="B2089" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2089">
@@ -27676,7 +27676,7 @@
     <row r="2090">
       <c r="B2090" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2090">
@@ -27754,7 +27754,7 @@
     <row r="2096">
       <c r="B2096" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2096">
@@ -27793,7 +27793,7 @@
     <row r="2099">
       <c r="B2099" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2099">
@@ -27845,7 +27845,7 @@
     <row r="2103">
       <c r="B2103" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2103">
@@ -27871,7 +27871,7 @@
     <row r="2105">
       <c r="B2105" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2105">
@@ -28001,7 +28001,7 @@
     <row r="2115">
       <c r="B2115" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2115">
@@ -28053,7 +28053,7 @@
     <row r="2119">
       <c r="B2119" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2119">
@@ -28066,7 +28066,7 @@
     <row r="2120">
       <c r="B2120" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2120">
@@ -28118,7 +28118,7 @@
     <row r="2124">
       <c r="B2124" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2124">
@@ -28248,7 +28248,7 @@
     <row r="2134">
       <c r="B2134" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2134">
@@ -28300,7 +28300,7 @@
     <row r="2138">
       <c r="B2138" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2138">
@@ -28404,7 +28404,7 @@
     <row r="2146">
       <c r="B2146" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2146">
@@ -28690,7 +28690,7 @@
     <row r="2168">
       <c r="B2168" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C2168">
@@ -28885,7 +28885,7 @@
     <row r="2183">
       <c r="B2183" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2183">
@@ -29041,7 +29041,7 @@
     <row r="2195">
       <c r="B2195" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2195">
@@ -29054,7 +29054,7 @@
     <row r="2196">
       <c r="B2196" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2196">
@@ -30247,7 +30247,7 @@
     <row r="2287">
       <c r="B2287" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2287">
@@ -30273,7 +30273,7 @@
     <row r="2289">
       <c r="B2289" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2289">
@@ -30299,7 +30299,7 @@
     <row r="2291">
       <c r="B2291" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2291">
@@ -30429,7 +30429,7 @@
     <row r="2301">
       <c r="B2301" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2301">
@@ -30507,7 +30507,7 @@
     <row r="2307">
       <c r="B2307" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2307">
@@ -30572,7 +30572,7 @@
     <row r="2312">
       <c r="B2312" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2312">
@@ -30585,7 +30585,7 @@
     <row r="2313">
       <c r="B2313" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2313">
@@ -30598,7 +30598,7 @@
     <row r="2314">
       <c r="B2314" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2314">
@@ -30741,7 +30741,7 @@
     <row r="2325">
       <c r="B2325" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2325">
@@ -30754,7 +30754,7 @@
     <row r="2326">
       <c r="B2326" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2326">
@@ -30780,7 +30780,7 @@
     <row r="2328">
       <c r="B2328" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2328">
@@ -30819,7 +30819,7 @@
     <row r="2331">
       <c r="B2331" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2331">
@@ -30918,41 +30918,6 @@
       </c>
       <c r="D2338">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
